--- a/datasheets/compare/compare_algs_S-3.xlsx
+++ b/datasheets/compare/compare_algs_S-3.xlsx
@@ -452,1102 +452,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1729259</v>
+        <v>2105560</v>
       </c>
       <c r="B2" t="n">
-        <v>3469217</v>
+        <v>4227150</v>
       </c>
       <c r="C2" t="n">
-        <v>283</v>
+        <v>4227178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2939165</v>
+        <v>-1489467</v>
       </c>
       <c r="B3" t="n">
-        <v>5889228</v>
+        <v>2994541</v>
       </c>
       <c r="C3" t="n">
-        <v>436</v>
+        <v>2994561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1396152</v>
+        <v>2993362</v>
       </c>
       <c r="B4" t="n">
-        <v>2801468</v>
+        <v>6000076</v>
       </c>
       <c r="C4" t="n">
-        <v>268</v>
+        <v>6000098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2188161</v>
+        <v>1395681</v>
       </c>
       <c r="B5" t="n">
-        <v>4390072</v>
+        <v>2803486</v>
       </c>
       <c r="C5" t="n">
-        <v>388</v>
+        <v>2803502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2591746</v>
+        <v>-2085386</v>
       </c>
       <c r="B6" t="n">
-        <v>5192675</v>
+        <v>4183053</v>
       </c>
       <c r="C6" t="n">
-        <v>411</v>
+        <v>4183071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2733045</v>
+        <v>-2693338</v>
       </c>
       <c r="B7" t="n">
-        <v>5477772</v>
+        <v>5397073</v>
       </c>
       <c r="C7" t="n">
-        <v>441</v>
+        <v>5397087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2617457</v>
+        <v>-3362132</v>
       </c>
       <c r="B8" t="n">
-        <v>5247529</v>
+        <v>6733365</v>
       </c>
       <c r="C8" t="n">
-        <v>302</v>
+        <v>6733389</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1548729</v>
+        <v>3158592</v>
       </c>
       <c r="B9" t="n">
-        <v>3113884</v>
+        <v>6326218</v>
       </c>
       <c r="C9" t="n">
-        <v>258</v>
+        <v>6326236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3254266</v>
+        <v>2207770</v>
       </c>
       <c r="B10" t="n">
-        <v>6524276</v>
+        <v>4430092</v>
       </c>
       <c r="C10" t="n">
-        <v>361</v>
+        <v>4430114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1362846</v>
+        <v>1535033</v>
       </c>
       <c r="B11" t="n">
-        <v>2739314</v>
+        <v>3082796</v>
       </c>
       <c r="C11" t="n">
-        <v>431</v>
+        <v>3082816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1577317</v>
+        <v>-3167433</v>
       </c>
       <c r="B12" t="n">
-        <v>3167967</v>
+        <v>6348659</v>
       </c>
       <c r="C12" t="n">
-        <v>388</v>
+        <v>6348671</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2745599</v>
+        <v>2271836</v>
       </c>
       <c r="B13" t="n">
-        <v>5501093</v>
+        <v>4557654</v>
       </c>
       <c r="C13" t="n">
-        <v>299</v>
+        <v>4557666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1648214</v>
+        <v>2096177</v>
       </c>
       <c r="B14" t="n">
-        <v>3305005</v>
+        <v>4208732</v>
       </c>
       <c r="C14" t="n">
-        <v>437</v>
+        <v>4208758</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2853860</v>
+        <v>-2962256</v>
       </c>
       <c r="B15" t="n">
-        <v>5722883</v>
+        <v>5939377</v>
       </c>
       <c r="C15" t="n">
-        <v>434</v>
+        <v>5939401</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3411771</v>
+        <v>-1687688</v>
       </c>
       <c r="B16" t="n">
-        <v>6838596</v>
+        <v>3385383</v>
       </c>
       <c r="C16" t="n">
-        <v>413</v>
+        <v>3385401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1710516</v>
+        <v>-2422923</v>
       </c>
       <c r="B17" t="n">
-        <v>3434287</v>
+        <v>4856905</v>
       </c>
       <c r="C17" t="n">
-        <v>298</v>
+        <v>4856917</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2459093</v>
+        <v>1200425</v>
       </c>
       <c r="B18" t="n">
-        <v>4928719</v>
+        <v>2416816</v>
       </c>
       <c r="C18" t="n">
-        <v>368</v>
+        <v>2416836</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2557364</v>
+        <v>1971005</v>
       </c>
       <c r="B19" t="n">
-        <v>5128802</v>
+        <v>3954652</v>
       </c>
       <c r="C19" t="n">
-        <v>451</v>
+        <v>3954676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2562218</v>
+        <v>-1613890</v>
       </c>
       <c r="B20" t="n">
-        <v>5138688</v>
+        <v>3240733</v>
       </c>
       <c r="C20" t="n">
-        <v>442</v>
+        <v>3240749</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2323867</v>
+        <v>2044711</v>
       </c>
       <c r="B21" t="n">
-        <v>4662031</v>
+        <v>4101128</v>
       </c>
       <c r="C21" t="n">
-        <v>480</v>
+        <v>4101144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1682095</v>
+        <v>-2267237</v>
       </c>
       <c r="B22" t="n">
-        <v>3375555</v>
+        <v>4550627</v>
       </c>
       <c r="C22" t="n">
-        <v>356</v>
+        <v>4550645</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3183998</v>
+        <v>1438535</v>
       </c>
       <c r="B23" t="n">
-        <v>6381379</v>
+        <v>2885420</v>
       </c>
       <c r="C23" t="n">
-        <v>443</v>
+        <v>2885438</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1971838</v>
+        <v>3016758</v>
       </c>
       <c r="B24" t="n">
-        <v>3953408</v>
+        <v>6045744</v>
       </c>
       <c r="C24" t="n">
-        <v>406</v>
+        <v>6045762</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2550042</v>
+        <v>2036247</v>
       </c>
       <c r="B25" t="n">
-        <v>5115265</v>
+        <v>4085648</v>
       </c>
       <c r="C25" t="n">
-        <v>461</v>
+        <v>4085674</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2587422</v>
+        <v>2939120</v>
       </c>
       <c r="B26" t="n">
-        <v>5186629</v>
+        <v>5892586</v>
       </c>
       <c r="C26" t="n">
-        <v>432</v>
+        <v>5892608</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2467936</v>
+        <v>-2464716</v>
       </c>
       <c r="B27" t="n">
-        <v>4950932</v>
+        <v>4943397</v>
       </c>
       <c r="C27" t="n">
-        <v>226</v>
+        <v>4943421</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1792539</v>
+        <v>1670942</v>
       </c>
       <c r="B28" t="n">
-        <v>3600013</v>
+        <v>3350397</v>
       </c>
       <c r="C28" t="n">
-        <v>348</v>
+        <v>3350415</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2896389</v>
+        <v>2444634</v>
       </c>
       <c r="B29" t="n">
-        <v>5801660</v>
+        <v>4899297</v>
       </c>
       <c r="C29" t="n">
-        <v>319</v>
+        <v>4899323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1957983</v>
+        <v>2389004</v>
       </c>
       <c r="B30" t="n">
-        <v>3931296</v>
+        <v>4792722</v>
       </c>
       <c r="C30" t="n">
-        <v>467</v>
+        <v>4792742</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1322301</v>
+        <v>3157297</v>
       </c>
       <c r="B31" t="n">
-        <v>2656472</v>
+        <v>6330268</v>
       </c>
       <c r="C31" t="n">
-        <v>421</v>
+        <v>6330286</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2158546</v>
+        <v>-2978328</v>
       </c>
       <c r="B32" t="n">
-        <v>4325651</v>
+        <v>5969367</v>
       </c>
       <c r="C32" t="n">
-        <v>287</v>
+        <v>5969387</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2208447</v>
+        <v>2592744</v>
       </c>
       <c r="B33" t="n">
-        <v>4433110</v>
+        <v>5200662</v>
       </c>
       <c r="C33" t="n">
-        <v>467</v>
+        <v>5200682</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2491298</v>
+        <v>1622376</v>
       </c>
       <c r="B34" t="n">
-        <v>4997732</v>
+        <v>3257787</v>
       </c>
       <c r="C34" t="n">
-        <v>313</v>
+        <v>3257807</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2017953</v>
+        <v>-2737742</v>
       </c>
       <c r="B35" t="n">
-        <v>4051227</v>
+        <v>5484055</v>
       </c>
       <c r="C35" t="n">
-        <v>266</v>
+        <v>5484077</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1911587</v>
+        <v>2629621</v>
       </c>
       <c r="B36" t="n">
-        <v>3836737</v>
+        <v>5269305</v>
       </c>
       <c r="C36" t="n">
-        <v>361</v>
+        <v>5269323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1423515</v>
+        <v>-3112181</v>
       </c>
       <c r="B37" t="n">
-        <v>2857793</v>
+        <v>6238573</v>
       </c>
       <c r="C37" t="n">
-        <v>338</v>
+        <v>6238595</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2566627</v>
+        <v>1095168</v>
       </c>
       <c r="B38" t="n">
-        <v>5146986</v>
+        <v>2205309</v>
       </c>
       <c r="C38" t="n">
-        <v>461</v>
+        <v>2205327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1675750</v>
+        <v>-1832559</v>
       </c>
       <c r="B39" t="n">
-        <v>3362950</v>
+        <v>3674803</v>
       </c>
       <c r="C39" t="n">
-        <v>384</v>
+        <v>3674825</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-1993896</v>
+        <v>3013672</v>
       </c>
       <c r="B40" t="n">
-        <v>4003181</v>
+        <v>6036674</v>
       </c>
       <c r="C40" t="n">
-        <v>395</v>
+        <v>6036700</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2945947</v>
+        <v>1839239</v>
       </c>
       <c r="B41" t="n">
-        <v>5904924</v>
+        <v>3691481</v>
       </c>
       <c r="C41" t="n">
-        <v>280</v>
+        <v>3691497</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1819225</v>
+        <v>3091877</v>
       </c>
       <c r="B42" t="n">
-        <v>3649050</v>
+        <v>6196591</v>
       </c>
       <c r="C42" t="n">
-        <v>279</v>
+        <v>6196603</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2504547</v>
+        <v>3365127</v>
       </c>
       <c r="B43" t="n">
-        <v>5022910</v>
+        <v>6742196</v>
       </c>
       <c r="C43" t="n">
-        <v>237</v>
+        <v>6742212</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3051433</v>
+        <v>3102753</v>
       </c>
       <c r="B44" t="n">
-        <v>6114952</v>
+        <v>6217336</v>
       </c>
       <c r="C44" t="n">
-        <v>384</v>
+        <v>6217352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1498477</v>
+        <v>-1818953</v>
       </c>
       <c r="B45" t="n">
-        <v>3008557</v>
+        <v>3650057</v>
       </c>
       <c r="C45" t="n">
-        <v>454</v>
+        <v>3650081</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-2099971</v>
+        <v>2303778</v>
       </c>
       <c r="B46" t="n">
-        <v>4216043</v>
+        <v>4623006</v>
       </c>
       <c r="C46" t="n">
-        <v>274</v>
+        <v>4623022</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1798423</v>
+        <v>2288524</v>
       </c>
       <c r="B47" t="n">
-        <v>3613274</v>
+        <v>4585550</v>
       </c>
       <c r="C47" t="n">
-        <v>238</v>
+        <v>4585572</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1651570</v>
+        <v>2238481</v>
       </c>
       <c r="B48" t="n">
-        <v>3312257</v>
+        <v>4487334</v>
       </c>
       <c r="C48" t="n">
-        <v>261</v>
+        <v>4487350</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1675253</v>
+        <v>1328678</v>
       </c>
       <c r="B49" t="n">
-        <v>3364838</v>
+        <v>2669504</v>
       </c>
       <c r="C49" t="n">
-        <v>299</v>
+        <v>2669524</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1445841</v>
+        <v>2999124</v>
       </c>
       <c r="B50" t="n">
-        <v>2900336</v>
+        <v>6006586</v>
       </c>
       <c r="C50" t="n">
-        <v>233</v>
+        <v>6006612</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3194776</v>
+        <v>1655767</v>
       </c>
       <c r="B51" t="n">
-        <v>6401518</v>
+        <v>3325101</v>
       </c>
       <c r="C51" t="n">
-        <v>263</v>
+        <v>3325121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1119683</v>
+        <v>2893210</v>
       </c>
       <c r="B52" t="n">
-        <v>2254519</v>
+        <v>5795949</v>
       </c>
       <c r="C52" t="n">
-        <v>332</v>
+        <v>5795971</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2840367</v>
+        <v>1647557</v>
       </c>
       <c r="B53" t="n">
-        <v>5690868</v>
+        <v>3310332</v>
       </c>
       <c r="C53" t="n">
-        <v>284</v>
+        <v>3310356</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2549654</v>
+        <v>3123474</v>
       </c>
       <c r="B54" t="n">
-        <v>5112964</v>
+        <v>6259797</v>
       </c>
       <c r="C54" t="n">
-        <v>360</v>
+        <v>6259815</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2367842</v>
+        <v>2695197</v>
       </c>
       <c r="B55" t="n">
-        <v>4750804</v>
+        <v>5400676</v>
       </c>
       <c r="C55" t="n">
-        <v>440</v>
+        <v>5400694</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-3130029</v>
+        <v>-1180893</v>
       </c>
       <c r="B56" t="n">
-        <v>6275975</v>
+        <v>2375717</v>
       </c>
       <c r="C56" t="n">
-        <v>432</v>
+        <v>2375745</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1767283</v>
+        <v>1628947</v>
       </c>
       <c r="B57" t="n">
-        <v>3544366</v>
+        <v>3273267</v>
       </c>
       <c r="C57" t="n">
-        <v>346</v>
+        <v>3273291</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2219151</v>
+        <v>2528219</v>
       </c>
       <c r="B58" t="n">
-        <v>4448065</v>
+        <v>5068278</v>
       </c>
       <c r="C58" t="n">
-        <v>301</v>
+        <v>5068300</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3052556</v>
+        <v>2866107</v>
       </c>
       <c r="B59" t="n">
-        <v>6121400</v>
+        <v>5747706</v>
       </c>
       <c r="C59" t="n">
-        <v>292</v>
+        <v>5747726</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3399724</v>
+        <v>2270102</v>
       </c>
       <c r="B60" t="n">
-        <v>6814550</v>
+        <v>4550398</v>
       </c>
       <c r="C60" t="n">
-        <v>336</v>
+        <v>4550424</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2743547</v>
+        <v>2311889</v>
       </c>
       <c r="B61" t="n">
-        <v>5499134</v>
+        <v>4638434</v>
       </c>
       <c r="C61" t="n">
-        <v>336</v>
+        <v>4638460</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2734102</v>
+        <v>-1830587</v>
       </c>
       <c r="B62" t="n">
-        <v>5476693</v>
+        <v>3672053</v>
       </c>
       <c r="C62" t="n">
-        <v>413</v>
+        <v>3672073</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2403434</v>
+        <v>-2799451</v>
       </c>
       <c r="B63" t="n">
-        <v>4817482</v>
+        <v>5615337</v>
       </c>
       <c r="C63" t="n">
-        <v>341</v>
+        <v>5615351</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2722321</v>
+        <v>2835968</v>
       </c>
       <c r="B64" t="n">
-        <v>5456820</v>
+        <v>5683088</v>
       </c>
       <c r="C64" t="n">
-        <v>314</v>
+        <v>5683108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-2277045</v>
+        <v>2540869</v>
       </c>
       <c r="B65" t="n">
-        <v>4570235</v>
+        <v>5096865</v>
       </c>
       <c r="C65" t="n">
-        <v>403</v>
+        <v>5096891</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-2604517</v>
+        <v>2119111</v>
       </c>
       <c r="B66" t="n">
-        <v>5219277</v>
+        <v>4247118</v>
       </c>
       <c r="C66" t="n">
-        <v>450</v>
+        <v>4247136</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-2603350</v>
+        <v>2452818</v>
       </c>
       <c r="B67" t="n">
-        <v>5222203</v>
+        <v>4914510</v>
       </c>
       <c r="C67" t="n">
-        <v>335</v>
+        <v>4914528</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2185823</v>
+        <v>1817526</v>
       </c>
       <c r="B68" t="n">
-        <v>4386656</v>
+        <v>3645393</v>
       </c>
       <c r="C68" t="n">
-        <v>238</v>
+        <v>3645415</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1870965</v>
+        <v>1690643</v>
       </c>
       <c r="B69" t="n">
-        <v>3755440</v>
+        <v>3391423</v>
       </c>
       <c r="C69" t="n">
-        <v>380</v>
+        <v>3391445</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2672031</v>
+        <v>3140506</v>
       </c>
       <c r="B70" t="n">
-        <v>5355556</v>
+        <v>6290944</v>
       </c>
       <c r="C70" t="n">
-        <v>354</v>
+        <v>6290960</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-2514966</v>
+        <v>-1961801</v>
       </c>
       <c r="B71" t="n">
-        <v>5041231</v>
+        <v>3935323</v>
       </c>
       <c r="C71" t="n">
-        <v>262</v>
+        <v>3935343</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1406158</v>
+        <v>1750475</v>
       </c>
       <c r="B72" t="n">
-        <v>2823481</v>
+        <v>3513668</v>
       </c>
       <c r="C72" t="n">
-        <v>473</v>
+        <v>3513686</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1365357</v>
+        <v>2160046</v>
       </c>
       <c r="B73" t="n">
-        <v>2743003</v>
+        <v>4335183</v>
       </c>
       <c r="C73" t="n">
-        <v>474</v>
+        <v>4335203</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1239975</v>
+        <v>2933506</v>
       </c>
       <c r="B74" t="n">
-        <v>2489000</v>
+        <v>5876889</v>
       </c>
       <c r="C74" t="n">
-        <v>260</v>
+        <v>5876909</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1755896</v>
+        <v>1198837</v>
       </c>
       <c r="B75" t="n">
-        <v>3526127</v>
+        <v>2409721</v>
       </c>
       <c r="C75" t="n">
-        <v>455</v>
+        <v>2409737</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3383456</v>
+        <v>3527734</v>
       </c>
       <c r="B76" t="n">
-        <v>6776540</v>
+        <v>7071570</v>
       </c>
       <c r="C76" t="n">
-        <v>301</v>
+        <v>7071596</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-2129594</v>
+        <v>2213891</v>
       </c>
       <c r="B77" t="n">
-        <v>4270539</v>
+        <v>4436982</v>
       </c>
       <c r="C77" t="n">
-        <v>295</v>
+        <v>4437002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1351936</v>
+        <v>-1496304</v>
       </c>
       <c r="B78" t="n">
-        <v>2716228</v>
+        <v>3002063</v>
       </c>
       <c r="C78" t="n">
-        <v>313</v>
+        <v>3002079</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1759043</v>
+        <v>2291453</v>
       </c>
       <c r="B79" t="n">
-        <v>3527577</v>
+        <v>4598834</v>
       </c>
       <c r="C79" t="n">
-        <v>304</v>
+        <v>4598858</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2389573</v>
+        <v>1505355</v>
       </c>
       <c r="B80" t="n">
-        <v>4795400</v>
+        <v>3020874</v>
       </c>
       <c r="C80" t="n">
-        <v>470</v>
+        <v>3020888</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2253596</v>
+        <v>3053962</v>
       </c>
       <c r="B81" t="n">
-        <v>4523314</v>
+        <v>6122768</v>
       </c>
       <c r="C81" t="n">
-        <v>382</v>
+        <v>6122794</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2303173</v>
+        <v>1718128</v>
       </c>
       <c r="B82" t="n">
-        <v>4622593</v>
+        <v>3451965</v>
       </c>
       <c r="C82" t="n">
-        <v>390</v>
+        <v>3451987</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2597434</v>
+        <v>2931650</v>
       </c>
       <c r="B83" t="n">
-        <v>5206726</v>
+        <v>5875397</v>
       </c>
       <c r="C83" t="n">
-        <v>226</v>
+        <v>5875423</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2071525</v>
+        <v>1934366</v>
       </c>
       <c r="B84" t="n">
-        <v>4158730</v>
+        <v>3885118</v>
       </c>
       <c r="C84" t="n">
-        <v>332</v>
+        <v>3885140</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1400282</v>
+        <v>1901520</v>
       </c>
       <c r="B85" t="n">
-        <v>2811777</v>
+        <v>3815496</v>
       </c>
       <c r="C85" t="n">
-        <v>430</v>
+        <v>3815520</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2932335</v>
+        <v>1391665</v>
       </c>
       <c r="B86" t="n">
-        <v>5876085</v>
+        <v>2795089</v>
       </c>
       <c r="C86" t="n">
-        <v>381</v>
+        <v>2795109</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3083420</v>
+        <v>-1733020</v>
       </c>
       <c r="B87" t="n">
-        <v>6178933</v>
+        <v>3476461</v>
       </c>
       <c r="C87" t="n">
-        <v>290</v>
+        <v>3476477</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3250572</v>
+        <v>2258324</v>
       </c>
       <c r="B88" t="n">
-        <v>6512108</v>
+        <v>4527302</v>
       </c>
       <c r="C88" t="n">
-        <v>318</v>
+        <v>4527328</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-2599609</v>
+        <v>1841941</v>
       </c>
       <c r="B89" t="n">
-        <v>5208131</v>
+        <v>3697447</v>
       </c>
       <c r="C89" t="n">
-        <v>347</v>
+        <v>3697467</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1997226</v>
+        <v>1860162</v>
       </c>
       <c r="B90" t="n">
-        <v>4009170</v>
+        <v>3732143</v>
       </c>
       <c r="C90" t="n">
-        <v>360</v>
+        <v>3732165</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2049877</v>
+        <v>-3100496</v>
       </c>
       <c r="B91" t="n">
-        <v>4113742</v>
+        <v>6210581</v>
       </c>
       <c r="C91" t="n">
-        <v>369</v>
+        <v>6210595</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2479183</v>
+        <v>1652072</v>
       </c>
       <c r="B92" t="n">
-        <v>4971266</v>
+        <v>3319730</v>
       </c>
       <c r="C92" t="n">
-        <v>382</v>
+        <v>3319754</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1429481</v>
+        <v>2437461</v>
       </c>
       <c r="B93" t="n">
-        <v>2873982</v>
+        <v>4890485</v>
       </c>
       <c r="C93" t="n">
-        <v>223</v>
+        <v>4890507</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2171969</v>
+        <v>1383563</v>
       </c>
       <c r="B94" t="n">
-        <v>4359561</v>
+        <v>2782663</v>
       </c>
       <c r="C94" t="n">
-        <v>409</v>
+        <v>2782679</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-2509743</v>
+        <v>2263308</v>
       </c>
       <c r="B95" t="n">
-        <v>5033095</v>
+        <v>4535452</v>
       </c>
       <c r="C95" t="n">
-        <v>469</v>
+        <v>4535478</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-2125619</v>
+        <v>1759183</v>
       </c>
       <c r="B96" t="n">
-        <v>4263311</v>
+        <v>3530537</v>
       </c>
       <c r="C96" t="n">
-        <v>412</v>
+        <v>3530553</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2114447</v>
+        <v>1452641</v>
       </c>
       <c r="B97" t="n">
-        <v>4240652</v>
+        <v>2918744</v>
       </c>
       <c r="C97" t="n">
-        <v>424</v>
+        <v>2918758</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1743352</v>
+        <v>3169707</v>
       </c>
       <c r="B98" t="n">
-        <v>3502739</v>
+        <v>6349962</v>
       </c>
       <c r="C98" t="n">
-        <v>420</v>
+        <v>6349984</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2506202</v>
+        <v>2119413</v>
       </c>
       <c r="B99" t="n">
-        <v>5022796</v>
+        <v>4247228</v>
       </c>
       <c r="C99" t="n">
-        <v>464</v>
+        <v>4247250</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-3020289</v>
+        <v>2611471</v>
       </c>
       <c r="B100" t="n">
-        <v>6049559</v>
+        <v>5234284</v>
       </c>
       <c r="C100" t="n">
-        <v>481</v>
+        <v>5234298</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1837097</v>
+        <v>-3422432</v>
       </c>
       <c r="B101" t="n">
-        <v>3682653</v>
+        <v>6859505</v>
       </c>
       <c r="C101" t="n">
-        <v>245</v>
+        <v>6859529</v>
       </c>
     </row>
   </sheetData>

--- a/datasheets/compare/compare_algs_S-3.xlsx
+++ b/datasheets/compare/compare_algs_S-3.xlsx
@@ -452,1102 +452,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2105560</v>
+        <v>3716114</v>
       </c>
       <c r="B2" t="n">
-        <v>4227150</v>
+        <v>3732290</v>
       </c>
       <c r="C2" t="n">
-        <v>4227178</v>
+        <v>3732308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1489467</v>
+        <v>4452913</v>
       </c>
       <c r="B3" t="n">
-        <v>2994541</v>
+        <v>4462860</v>
       </c>
       <c r="C3" t="n">
-        <v>2994561</v>
+        <v>4462886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2993362</v>
+        <v>4795927</v>
       </c>
       <c r="B4" t="n">
-        <v>6000076</v>
+        <v>4809901</v>
       </c>
       <c r="C4" t="n">
-        <v>6000098</v>
+        <v>4809921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1395681</v>
+        <v>3603349</v>
       </c>
       <c r="B5" t="n">
-        <v>2803486</v>
+        <v>3619486</v>
       </c>
       <c r="C5" t="n">
-        <v>2803502</v>
+        <v>3619504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2085386</v>
+        <v>6448811</v>
       </c>
       <c r="B6" t="n">
-        <v>4183053</v>
+        <v>6460348</v>
       </c>
       <c r="C6" t="n">
-        <v>4183071</v>
+        <v>6460370</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2693338</v>
+        <v>2993046</v>
       </c>
       <c r="B7" t="n">
-        <v>5397073</v>
+        <v>3002485</v>
       </c>
       <c r="C7" t="n">
-        <v>5397087</v>
+        <v>3002503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3362132</v>
+        <v>3043013</v>
       </c>
       <c r="B8" t="n">
-        <v>6733365</v>
+        <v>3052721</v>
       </c>
       <c r="C8" t="n">
-        <v>6733389</v>
+        <v>3052741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3158592</v>
+        <v>4601342</v>
       </c>
       <c r="B9" t="n">
-        <v>6326218</v>
+        <v>4611158</v>
       </c>
       <c r="C9" t="n">
-        <v>6326236</v>
+        <v>4611182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2207770</v>
+        <v>3910667</v>
       </c>
       <c r="B10" t="n">
-        <v>4430092</v>
+        <v>3926469</v>
       </c>
       <c r="C10" t="n">
-        <v>4430114</v>
+        <v>3926485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1535033</v>
+        <v>6077640</v>
       </c>
       <c r="B11" t="n">
-        <v>3082796</v>
+        <v>6087038</v>
       </c>
       <c r="C11" t="n">
-        <v>3082816</v>
+        <v>6087056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3167433</v>
+        <v>2914388</v>
       </c>
       <c r="B12" t="n">
-        <v>6348659</v>
+        <v>2929432</v>
       </c>
       <c r="C12" t="n">
-        <v>6348671</v>
+        <v>2929452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2271836</v>
+        <v>4374273</v>
       </c>
       <c r="B13" t="n">
-        <v>4557654</v>
+        <v>4383921</v>
       </c>
       <c r="C13" t="n">
-        <v>4557666</v>
+        <v>4383935</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2096177</v>
+        <v>6622671</v>
       </c>
       <c r="B14" t="n">
-        <v>4208732</v>
+        <v>6632838</v>
       </c>
       <c r="C14" t="n">
-        <v>4208758</v>
+        <v>6632858</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2962256</v>
+        <v>2984157</v>
       </c>
       <c r="B15" t="n">
-        <v>5939377</v>
+        <v>2993253</v>
       </c>
       <c r="C15" t="n">
-        <v>5939401</v>
+        <v>2993271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1687688</v>
+        <v>6376938</v>
       </c>
       <c r="B16" t="n">
-        <v>3385383</v>
+        <v>6385659</v>
       </c>
       <c r="C16" t="n">
-        <v>3385401</v>
+        <v>6385677</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2422923</v>
+        <v>3998247</v>
       </c>
       <c r="B17" t="n">
-        <v>4856905</v>
+        <v>4007114</v>
       </c>
       <c r="C17" t="n">
-        <v>4856917</v>
+        <v>4007140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1200425</v>
+        <v>3257269</v>
       </c>
       <c r="B18" t="n">
-        <v>2416816</v>
+        <v>3267207</v>
       </c>
       <c r="C18" t="n">
-        <v>2416836</v>
+        <v>3267225</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1971005</v>
+        <v>4824034</v>
       </c>
       <c r="B19" t="n">
-        <v>3954652</v>
+        <v>4834045</v>
       </c>
       <c r="C19" t="n">
-        <v>3954676</v>
+        <v>4834057</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1613890</v>
+        <v>2571034</v>
       </c>
       <c r="B20" t="n">
-        <v>3240733</v>
+        <v>2586190</v>
       </c>
       <c r="C20" t="n">
-        <v>3240749</v>
+        <v>2586202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2044711</v>
+        <v>5825585</v>
       </c>
       <c r="B21" t="n">
-        <v>4101128</v>
+        <v>5834007</v>
       </c>
       <c r="C21" t="n">
-        <v>4101144</v>
+        <v>5834029</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2267237</v>
+        <v>4061321</v>
       </c>
       <c r="B22" t="n">
-        <v>4550627</v>
+        <v>4074063</v>
       </c>
       <c r="C22" t="n">
-        <v>4550645</v>
+        <v>4074089</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1438535</v>
+        <v>5194513</v>
       </c>
       <c r="B23" t="n">
-        <v>2885420</v>
+        <v>5205800</v>
       </c>
       <c r="C23" t="n">
-        <v>2885438</v>
+        <v>5205816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3016758</v>
+        <v>4536110</v>
       </c>
       <c r="B24" t="n">
-        <v>6045744</v>
+        <v>4544397</v>
       </c>
       <c r="C24" t="n">
-        <v>6045762</v>
+        <v>4544417</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2036247</v>
+        <v>5157518</v>
       </c>
       <c r="B25" t="n">
-        <v>4085648</v>
+        <v>5171270</v>
       </c>
       <c r="C25" t="n">
-        <v>4085674</v>
+        <v>5171296</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2939120</v>
+        <v>4844595</v>
       </c>
       <c r="B26" t="n">
-        <v>5892586</v>
+        <v>4855493</v>
       </c>
       <c r="C26" t="n">
-        <v>5892608</v>
+        <v>4855515</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-2464716</v>
+        <v>3965506</v>
       </c>
       <c r="B27" t="n">
-        <v>4943397</v>
+        <v>3975458</v>
       </c>
       <c r="C27" t="n">
-        <v>4943421</v>
+        <v>3975480</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1670942</v>
+        <v>5279951</v>
       </c>
       <c r="B28" t="n">
-        <v>3350397</v>
+        <v>5291427</v>
       </c>
       <c r="C28" t="n">
-        <v>3350415</v>
+        <v>5291445</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2444634</v>
+        <v>5962890</v>
       </c>
       <c r="B29" t="n">
-        <v>4899297</v>
+        <v>5977514</v>
       </c>
       <c r="C29" t="n">
-        <v>4899323</v>
+        <v>5977532</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2389004</v>
+        <v>5003792</v>
       </c>
       <c r="B30" t="n">
-        <v>4792722</v>
+        <v>5013796</v>
       </c>
       <c r="C30" t="n">
-        <v>4792742</v>
+        <v>5013822</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3157297</v>
+        <v>4829129</v>
       </c>
       <c r="B31" t="n">
-        <v>6330268</v>
+        <v>4841014</v>
       </c>
       <c r="C31" t="n">
-        <v>6330286</v>
+        <v>4841034</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-2978328</v>
+        <v>6032751</v>
       </c>
       <c r="B32" t="n">
-        <v>5969367</v>
+        <v>6048343</v>
       </c>
       <c r="C32" t="n">
-        <v>5969387</v>
+        <v>6048363</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2592744</v>
+        <v>2473395</v>
       </c>
       <c r="B33" t="n">
-        <v>5200662</v>
+        <v>2483141</v>
       </c>
       <c r="C33" t="n">
-        <v>5200682</v>
+        <v>2483163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1622376</v>
+        <v>5698224</v>
       </c>
       <c r="B34" t="n">
-        <v>3257787</v>
+        <v>5713034</v>
       </c>
       <c r="C34" t="n">
-        <v>3257807</v>
+        <v>5713046</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-2737742</v>
+        <v>4132229</v>
       </c>
       <c r="B35" t="n">
-        <v>5484055</v>
+        <v>4140813</v>
       </c>
       <c r="C35" t="n">
-        <v>5484077</v>
+        <v>4140831</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2629621</v>
+        <v>3154967</v>
       </c>
       <c r="B36" t="n">
-        <v>5269305</v>
+        <v>3167610</v>
       </c>
       <c r="C36" t="n">
-        <v>5269323</v>
+        <v>3167624</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-3112181</v>
+        <v>5588136</v>
       </c>
       <c r="B37" t="n">
-        <v>6238573</v>
+        <v>5598255</v>
       </c>
       <c r="C37" t="n">
-        <v>6238595</v>
+        <v>5598283</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1095168</v>
+        <v>3277989</v>
       </c>
       <c r="B38" t="n">
-        <v>2205309</v>
+        <v>3291903</v>
       </c>
       <c r="C38" t="n">
-        <v>2205327</v>
+        <v>3291923</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1832559</v>
+        <v>4259552</v>
       </c>
       <c r="B39" t="n">
-        <v>3674803</v>
+        <v>4271104</v>
       </c>
       <c r="C39" t="n">
-        <v>3674825</v>
+        <v>4271130</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3013672</v>
+        <v>5648027</v>
       </c>
       <c r="B40" t="n">
-        <v>6036674</v>
+        <v>5664355</v>
       </c>
       <c r="C40" t="n">
-        <v>6036700</v>
+        <v>5664381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1839239</v>
+        <v>6628897</v>
       </c>
       <c r="B41" t="n">
-        <v>3691481</v>
+        <v>6639584</v>
       </c>
       <c r="C41" t="n">
-        <v>3691497</v>
+        <v>6639604</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3091877</v>
+        <v>5199117</v>
       </c>
       <c r="B42" t="n">
-        <v>6196591</v>
+        <v>5208850</v>
       </c>
       <c r="C42" t="n">
-        <v>6196603</v>
+        <v>5208870</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3365127</v>
+        <v>6342304</v>
       </c>
       <c r="B43" t="n">
-        <v>6742196</v>
+        <v>6357195</v>
       </c>
       <c r="C43" t="n">
-        <v>6742212</v>
+        <v>6357217</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3102753</v>
+        <v>2933159</v>
       </c>
       <c r="B44" t="n">
-        <v>6217336</v>
+        <v>2943844</v>
       </c>
       <c r="C44" t="n">
-        <v>6217352</v>
+        <v>2943860</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1818953</v>
+        <v>4314203</v>
       </c>
       <c r="B45" t="n">
-        <v>3650057</v>
+        <v>4322820</v>
       </c>
       <c r="C45" t="n">
-        <v>3650081</v>
+        <v>4322844</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2303778</v>
+        <v>2408713</v>
       </c>
       <c r="B46" t="n">
-        <v>4623006</v>
+        <v>2417954</v>
       </c>
       <c r="C46" t="n">
-        <v>4623022</v>
+        <v>2417976</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2288524</v>
+        <v>6117783</v>
       </c>
       <c r="B47" t="n">
-        <v>4585550</v>
+        <v>6129159</v>
       </c>
       <c r="C47" t="n">
-        <v>4585572</v>
+        <v>6129171</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2238481</v>
+        <v>5083625</v>
       </c>
       <c r="B48" t="n">
-        <v>4487334</v>
+        <v>5095221</v>
       </c>
       <c r="C48" t="n">
-        <v>4487350</v>
+        <v>5095233</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1328678</v>
+        <v>4638286</v>
       </c>
       <c r="B49" t="n">
-        <v>2669504</v>
+        <v>4649114</v>
       </c>
       <c r="C49" t="n">
-        <v>2669524</v>
+        <v>4649132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2999124</v>
+        <v>3981769</v>
       </c>
       <c r="B50" t="n">
-        <v>6006586</v>
+        <v>3993281</v>
       </c>
       <c r="C50" t="n">
-        <v>6006612</v>
+        <v>3993293</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1655767</v>
+        <v>5874999</v>
       </c>
       <c r="B51" t="n">
-        <v>3325101</v>
+        <v>5888023</v>
       </c>
       <c r="C51" t="n">
-        <v>3325121</v>
+        <v>5888039</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2893210</v>
+        <v>3670696</v>
       </c>
       <c r="B52" t="n">
-        <v>5795949</v>
+        <v>3686032</v>
       </c>
       <c r="C52" t="n">
-        <v>5795971</v>
+        <v>3686048</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1647557</v>
+        <v>5136726</v>
       </c>
       <c r="B53" t="n">
-        <v>3310332</v>
+        <v>5152230</v>
       </c>
       <c r="C53" t="n">
-        <v>3310356</v>
+        <v>5152252</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3123474</v>
+        <v>5229634</v>
       </c>
       <c r="B54" t="n">
-        <v>6259797</v>
+        <v>5241378</v>
       </c>
       <c r="C54" t="n">
-        <v>6259815</v>
+        <v>5241406</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2695197</v>
+        <v>6138600</v>
       </c>
       <c r="B55" t="n">
-        <v>5400676</v>
+        <v>6149830</v>
       </c>
       <c r="C55" t="n">
-        <v>5400694</v>
+        <v>6149846</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-1180893</v>
+        <v>4405739</v>
       </c>
       <c r="B56" t="n">
-        <v>2375717</v>
+        <v>4417191</v>
       </c>
       <c r="C56" t="n">
-        <v>2375745</v>
+        <v>4417205</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1628947</v>
+        <v>5431620</v>
       </c>
       <c r="B57" t="n">
-        <v>3273267</v>
+        <v>5446749</v>
       </c>
       <c r="C57" t="n">
-        <v>3273291</v>
+        <v>5446769</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2528219</v>
+        <v>5995457</v>
       </c>
       <c r="B58" t="n">
-        <v>5068278</v>
+        <v>6011078</v>
       </c>
       <c r="C58" t="n">
-        <v>5068300</v>
+        <v>6011098</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2866107</v>
+        <v>6899646</v>
       </c>
       <c r="B59" t="n">
-        <v>5747706</v>
+        <v>6914172</v>
       </c>
       <c r="C59" t="n">
-        <v>5747726</v>
+        <v>6914194</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2270102</v>
+        <v>5414821</v>
       </c>
       <c r="B60" t="n">
-        <v>4550398</v>
+        <v>5429407</v>
       </c>
       <c r="C60" t="n">
-        <v>4550424</v>
+        <v>5429427</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2311889</v>
+        <v>5093601</v>
       </c>
       <c r="B61" t="n">
-        <v>4638434</v>
+        <v>5104819</v>
       </c>
       <c r="C61" t="n">
-        <v>4638460</v>
+        <v>5104841</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1830587</v>
+        <v>3418929</v>
       </c>
       <c r="B62" t="n">
-        <v>3672053</v>
+        <v>3432975</v>
       </c>
       <c r="C62" t="n">
-        <v>3672073</v>
+        <v>3432995</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-2799451</v>
+        <v>3018065</v>
       </c>
       <c r="B63" t="n">
-        <v>5615337</v>
+        <v>3029130</v>
       </c>
       <c r="C63" t="n">
-        <v>5615351</v>
+        <v>3029154</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2835968</v>
+        <v>4664623</v>
       </c>
       <c r="B64" t="n">
-        <v>5683088</v>
+        <v>4675244</v>
       </c>
       <c r="C64" t="n">
-        <v>5683108</v>
+        <v>4675268</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2540869</v>
+        <v>5946889</v>
       </c>
       <c r="B65" t="n">
-        <v>5096865</v>
+        <v>5961029</v>
       </c>
       <c r="C65" t="n">
-        <v>5096891</v>
+        <v>5961053</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2119111</v>
+        <v>3436815</v>
       </c>
       <c r="B66" t="n">
-        <v>4247118</v>
+        <v>3453251</v>
       </c>
       <c r="C66" t="n">
-        <v>4247136</v>
+        <v>3453271</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2452818</v>
+        <v>6649990</v>
       </c>
       <c r="B67" t="n">
-        <v>4914510</v>
+        <v>6660698</v>
       </c>
       <c r="C67" t="n">
-        <v>4914528</v>
+        <v>6660712</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1817526</v>
+        <v>4960478</v>
       </c>
       <c r="B68" t="n">
-        <v>3645393</v>
+        <v>4976130</v>
       </c>
       <c r="C68" t="n">
-        <v>3645415</v>
+        <v>4976156</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1690643</v>
+        <v>2608796</v>
       </c>
       <c r="B69" t="n">
-        <v>3391423</v>
+        <v>2619946</v>
       </c>
       <c r="C69" t="n">
-        <v>3391445</v>
+        <v>2619960</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3140506</v>
+        <v>3706933</v>
       </c>
       <c r="B70" t="n">
-        <v>6290944</v>
+        <v>3721149</v>
       </c>
       <c r="C70" t="n">
-        <v>6290960</v>
+        <v>3721165</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1961801</v>
+        <v>5383776</v>
       </c>
       <c r="B71" t="n">
-        <v>3935323</v>
+        <v>5396667</v>
       </c>
       <c r="C71" t="n">
-        <v>3935343</v>
+        <v>5396687</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1750475</v>
+        <v>4272052</v>
       </c>
       <c r="B72" t="n">
-        <v>3513668</v>
+        <v>4287724</v>
       </c>
       <c r="C72" t="n">
-        <v>3513686</v>
+        <v>4287742</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2160046</v>
+        <v>3826040</v>
       </c>
       <c r="B73" t="n">
-        <v>4335183</v>
+        <v>3839603</v>
       </c>
       <c r="C73" t="n">
-        <v>4335203</v>
+        <v>3839619</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2933506</v>
+        <v>3152155</v>
       </c>
       <c r="B74" t="n">
-        <v>5876889</v>
+        <v>3160764</v>
       </c>
       <c r="C74" t="n">
-        <v>5876909</v>
+        <v>3160784</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1198837</v>
+        <v>5244506</v>
       </c>
       <c r="B75" t="n">
-        <v>2409721</v>
+        <v>5257152</v>
       </c>
       <c r="C75" t="n">
-        <v>2409737</v>
+        <v>5257168</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3527734</v>
+        <v>2290839</v>
       </c>
       <c r="B76" t="n">
-        <v>7071570</v>
+        <v>2299653</v>
       </c>
       <c r="C76" t="n">
-        <v>7071596</v>
+        <v>2299673</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2213891</v>
+        <v>3090427</v>
       </c>
       <c r="B77" t="n">
-        <v>4436982</v>
+        <v>3106452</v>
       </c>
       <c r="C77" t="n">
-        <v>4437002</v>
+        <v>3106470</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-1496304</v>
+        <v>2676085</v>
       </c>
       <c r="B78" t="n">
-        <v>3002063</v>
+        <v>2689780</v>
       </c>
       <c r="C78" t="n">
-        <v>3002079</v>
+        <v>2689796</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2291453</v>
+        <v>6446186</v>
       </c>
       <c r="B79" t="n">
-        <v>4598834</v>
+        <v>6460834</v>
       </c>
       <c r="C79" t="n">
-        <v>4598858</v>
+        <v>6460862</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1505355</v>
+        <v>3210861</v>
       </c>
       <c r="B80" t="n">
-        <v>3020874</v>
+        <v>3221240</v>
       </c>
       <c r="C80" t="n">
-        <v>3020888</v>
+        <v>3221256</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3053962</v>
+        <v>4236588</v>
       </c>
       <c r="B81" t="n">
-        <v>6122768</v>
+        <v>4248533</v>
       </c>
       <c r="C81" t="n">
-        <v>6122794</v>
+        <v>4248545</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1718128</v>
+        <v>5786969</v>
       </c>
       <c r="B82" t="n">
-        <v>3451965</v>
+        <v>5801051</v>
       </c>
       <c r="C82" t="n">
-        <v>3451987</v>
+        <v>5801073</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2931650</v>
+        <v>5550345</v>
       </c>
       <c r="B83" t="n">
-        <v>5875397</v>
+        <v>5563369</v>
       </c>
       <c r="C83" t="n">
-        <v>5875423</v>
+        <v>5563381</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1934366</v>
+        <v>3413535</v>
       </c>
       <c r="B84" t="n">
-        <v>3885118</v>
+        <v>3423446</v>
       </c>
       <c r="C84" t="n">
-        <v>3885140</v>
+        <v>3423464</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1901520</v>
+        <v>2626503</v>
       </c>
       <c r="B85" t="n">
-        <v>3815496</v>
+        <v>2636234</v>
       </c>
       <c r="C85" t="n">
-        <v>3815520</v>
+        <v>2636248</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1391665</v>
+        <v>5465485</v>
       </c>
       <c r="B86" t="n">
-        <v>2795089</v>
+        <v>5474322</v>
       </c>
       <c r="C86" t="n">
-        <v>2795109</v>
+        <v>5474340</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1733020</v>
+        <v>6672975</v>
       </c>
       <c r="B87" t="n">
-        <v>3476461</v>
+        <v>6686077</v>
       </c>
       <c r="C87" t="n">
-        <v>3476477</v>
+        <v>6686097</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2258324</v>
+        <v>3062371</v>
       </c>
       <c r="B88" t="n">
-        <v>4527302</v>
+        <v>3073545</v>
       </c>
       <c r="C88" t="n">
-        <v>4527328</v>
+        <v>3073573</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1841941</v>
+        <v>3593428</v>
       </c>
       <c r="B89" t="n">
-        <v>3697447</v>
+        <v>3607204</v>
       </c>
       <c r="C89" t="n">
-        <v>3697467</v>
+        <v>3607222</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1860162</v>
+        <v>6442601</v>
       </c>
       <c r="B90" t="n">
-        <v>3732143</v>
+        <v>6456514</v>
       </c>
       <c r="C90" t="n">
-        <v>3732165</v>
+        <v>6456536</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-3100496</v>
+        <v>6726680</v>
       </c>
       <c r="B91" t="n">
-        <v>6210581</v>
+        <v>6742510</v>
       </c>
       <c r="C91" t="n">
-        <v>6210595</v>
+        <v>6742534</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1652072</v>
+        <v>3729739</v>
       </c>
       <c r="B92" t="n">
-        <v>3319730</v>
+        <v>3740361</v>
       </c>
       <c r="C92" t="n">
-        <v>3319754</v>
+        <v>3740383</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2437461</v>
+        <v>3307545</v>
       </c>
       <c r="B93" t="n">
-        <v>4890485</v>
+        <v>3318249</v>
       </c>
       <c r="C93" t="n">
-        <v>4890507</v>
+        <v>3318273</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1383563</v>
+        <v>6276574</v>
       </c>
       <c r="B94" t="n">
-        <v>2782663</v>
+        <v>6285350</v>
       </c>
       <c r="C94" t="n">
-        <v>2782679</v>
+        <v>6285362</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2263308</v>
+        <v>4736654</v>
       </c>
       <c r="B95" t="n">
-        <v>4535452</v>
+        <v>4748791</v>
       </c>
       <c r="C95" t="n">
-        <v>4535478</v>
+        <v>4748815</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1759183</v>
+        <v>6071670</v>
       </c>
       <c r="B96" t="n">
-        <v>3530537</v>
+        <v>6084064</v>
       </c>
       <c r="C96" t="n">
-        <v>3530553</v>
+        <v>6084082</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1452641</v>
+        <v>7136271</v>
       </c>
       <c r="B97" t="n">
-        <v>2918744</v>
+        <v>7146349</v>
       </c>
       <c r="C97" t="n">
-        <v>2918758</v>
+        <v>7146369</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3169707</v>
+        <v>3746781</v>
       </c>
       <c r="B98" t="n">
-        <v>6349962</v>
+        <v>3756472</v>
       </c>
       <c r="C98" t="n">
-        <v>6349984</v>
+        <v>3756494</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2119413</v>
+        <v>3094309</v>
       </c>
       <c r="B99" t="n">
-        <v>4247228</v>
+        <v>3104115</v>
       </c>
       <c r="C99" t="n">
-        <v>4247250</v>
+        <v>3104137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2611471</v>
+        <v>3349079</v>
       </c>
       <c r="B100" t="n">
-        <v>5234284</v>
+        <v>3362700</v>
       </c>
       <c r="C100" t="n">
-        <v>5234298</v>
+        <v>3362718</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-3422432</v>
+        <v>6286884</v>
       </c>
       <c r="B101" t="n">
-        <v>6859505</v>
+        <v>6300753</v>
       </c>
       <c r="C101" t="n">
-        <v>6859529</v>
+        <v>6300781</v>
       </c>
     </row>
   </sheetData>
